--- a/result/gr100_03_simulated/details.xlsx
+++ b/result/gr100_03_simulated/details.xlsx
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.020000219345093</v>
+        <v>0.8949596881866455</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>5364.871087556153</v>
+        <v>5440.353396191823</v>
       </c>
       <c r="F2" t="n">
         <v>0.2146727788952861</v>
@@ -585,58 +585,58 @@
         <v>0.1956649310266082</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1676911971763648</v>
+        <v>0.1767605951137659</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1650324346100957</v>
+        <v>0.163262506580145</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1604410914494428</v>
+        <v>0.1583030468112386</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1604410914494428</v>
+        <v>0.1566933580605231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1544779130653872</v>
+        <v>0.1557858736227853</v>
       </c>
       <c r="M2" t="n">
-        <v>0.154402067567078</v>
+        <v>0.1553796858760203</v>
       </c>
       <c r="N2" t="n">
-        <v>0.154402067567078</v>
+        <v>0.1551745850355836</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1532544310223149</v>
+        <v>0.1550705040120784</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1532544310223149</v>
+        <v>0.1550176867762698</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1532544310223149</v>
+        <v>0.1549908839998894</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1532544310223149</v>
+        <v>0.1549772825909799</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1527529066765602</v>
+        <v>0.1549705436789115</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1527508731134259</v>
+        <v>0.1549670692140769</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1526665133741684</v>
+        <v>0.1549652541951334</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1526665133741684</v>
+        <v>0.1549643060509092</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1525783837730244</v>
+        <v>0.1545057389291681</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1525783837730244</v>
+        <v>0.1544237506637995</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1525783837730244</v>
+        <v>0.1540497738049088</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.032034873962402</v>
+        <v>1.057798147201538</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>4962.722770413985</v>
+        <v>5039.478824497334</v>
       </c>
       <c r="F3" t="n">
         <v>0.2146727788952861</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1956649310266082</v>
+        <v>0.1933384005523712</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1814770469766044</v>
+        <v>0.1799754386507599</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1652280378245471</v>
+        <v>0.1680540835694761</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1581596951583266</v>
+        <v>0.1595033687699511</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1581596951583266</v>
+        <v>0.1516138664109001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1549543244009042</v>
+        <v>0.1516138664109001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1535454064821075</v>
+        <v>0.1516138664109001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.151654427772971</v>
+        <v>0.1489436918043434</v>
       </c>
       <c r="O3" t="n">
-        <v>0.151654427772971</v>
+        <v>0.1489436918043434</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1504351800093418</v>
+        <v>0.1481312594162714</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1492004603076385</v>
+        <v>0.1475553677965185</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1474357401459881</v>
+        <v>0.1475553677965185</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1467312738992695</v>
+        <v>0.147264816024982</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1467312738992695</v>
+        <v>0.1469399677367001</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1458242322289563</v>
+        <v>0.1469399677367001</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1457735255035818</v>
+        <v>0.1469368220452329</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1452053944388118</v>
+        <v>0.146235454668564</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1447392352907209</v>
+        <v>0.146235454668564</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1447392352907209</v>
+        <v>0.146235454668564</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9920265674591064</v>
+        <v>0.890625</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>5089.472932288967</v>
+        <v>4971.846252555533</v>
       </c>
       <c r="F4" t="n">
         <v>0.2146727788952861</v>
       </c>
       <c r="G4" t="n">
-        <v>0.181620497427137</v>
+        <v>0.1938177082958615</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1612277500512114</v>
+        <v>0.1864078920415088</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1562003378571796</v>
+        <v>0.1556450001230484</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1562003378571796</v>
+        <v>0.1556450001230484</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1562003378571796</v>
+        <v>0.1527350601427934</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1553772872513386</v>
+        <v>0.1436263642244136</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1533162951401557</v>
+        <v>0.1403560766463956</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1499701386286521</v>
+        <v>0.1403560766463956</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1499701386286521</v>
+        <v>0.1403560766463956</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1499701386286521</v>
+        <v>0.1402530361378027</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1499701386286521</v>
+        <v>0.1396972180259811</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1479830265428065</v>
+        <v>0.1388288705955758</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1479830265428065</v>
+        <v>0.1380801770980697</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1479830265428065</v>
+        <v>0.1376418114432195</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1479108966544001</v>
+        <v>0.1373926163311942</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1474465140756765</v>
+        <v>0.1373152751542007</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1474465140756765</v>
+        <v>0.1372894322480053</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1474465140756765</v>
+        <v>0.1371331417193906</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1472099986800968</v>
+        <v>0.1369170809465016</v>
       </c>
     </row>
     <row r="5">
@@ -807,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8260123729705811</v>
+        <v>0.9218471050262451</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>4833.389709051949</v>
+        <v>5319.276856685684</v>
       </c>
       <c r="F5" t="n">
         <v>0.2146727788952861</v>
@@ -822,58 +822,58 @@
         <v>0.1956649310266082</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1864078920415088</v>
+        <v>0.1735916782631247</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1679197567541237</v>
+        <v>0.1614733528139802</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1513292091030372</v>
+        <v>0.1608321234485468</v>
       </c>
       <c r="K5" t="n">
-        <v>0.147016355439977</v>
+        <v>0.1597570122895474</v>
       </c>
       <c r="L5" t="n">
-        <v>0.141483478465748</v>
+        <v>0.1576041170885637</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1378115298803412</v>
+        <v>0.1572659713685058</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1281843506969438</v>
+        <v>0.1569722157368286</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1235862998861857</v>
+        <v>0.156324517469674</v>
       </c>
       <c r="P5" t="n">
-        <v>0.117180267953531</v>
+        <v>0.1559737367604662</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1138379802421706</v>
+        <v>0.1543925697545493</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1105700789964984</v>
+        <v>0.15224635055469</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1089833863012148</v>
+        <v>0.15224635055469</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1085871208219453</v>
+        <v>0.15224635055469</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1055109039637584</v>
+        <v>0.15224635055469</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1038233022051397</v>
+        <v>0.1518360453834512</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1029703616427975</v>
+        <v>0.1518360453834512</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1025513025337058</v>
+        <v>0.1518360453834512</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1022181229834688</v>
+        <v>0.1516896073428008</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989888668060303</v>
+        <v>0.9375262260437012</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>5082.817082219358</v>
+        <v>5158.287553907163</v>
       </c>
       <c r="F6" t="n">
         <v>0.2146727788952861</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1943774497475521</v>
+        <v>0.1956649310266082</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1763976581656859</v>
+        <v>0.1745157418118972</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1659166164902984</v>
+        <v>0.1654085712640405</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1659166164902984</v>
+        <v>0.1609103478398919</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1659166164902984</v>
+        <v>0.1521786897514743</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1605636729586402</v>
+        <v>0.1521786897514743</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1556955995575964</v>
+        <v>0.1521786897514743</v>
       </c>
       <c r="N6" t="n">
-        <v>0.154973782655649</v>
+        <v>0.1502431894814248</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1506233345754621</v>
+        <v>0.1502431894814248</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1506233345754621</v>
+        <v>0.1492353598039636</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1486434221810038</v>
+        <v>0.1492353598039636</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1486434221810038</v>
+        <v>0.1492353598039636</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1486434221810038</v>
+        <v>0.1492353598039636</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1486434221810038</v>
+        <v>0.1490159579315052</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1479866439555989</v>
+        <v>0.1487764446454088</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1471185964387291</v>
+        <v>0.1486253009961733</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1471185964387291</v>
+        <v>0.1486253009961733</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1470802550140226</v>
+        <v>0.1485972791523557</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1470802550140226</v>
+        <v>0.1485514143061825</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9730014801025391</v>
+        <v>0.9374721050262451</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>5231.523100929255</v>
+        <v>5013.580305049602</v>
       </c>
       <c r="F7" t="n">
         <v>0.2146727788952861</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1914673323410055</v>
+        <v>0.1956649310266082</v>
       </c>
       <c r="H7" t="n">
-        <v>0.162893448904114</v>
+        <v>0.1803251139992895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.162893448904114</v>
+        <v>0.1629978428180135</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1582306486517517</v>
+        <v>0.1555437479710646</v>
       </c>
       <c r="K7" t="n">
-        <v>0.155048187165431</v>
+        <v>0.1555437479710646</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1503864199005193</v>
+        <v>0.1540546227523222</v>
       </c>
       <c r="M7" t="n">
-        <v>0.14876712715319</v>
+        <v>0.1513452045070048</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1460625043700793</v>
+        <v>0.1488925573226196</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1455461302925041</v>
+        <v>0.1473057486562785</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1455461302925041</v>
+        <v>0.1473057486562785</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1438119765764104</v>
+        <v>0.1466799783034419</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1438119765764104</v>
+        <v>0.1466799783034419</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1438119765764104</v>
+        <v>0.1466799783034419</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1436124626708298</v>
+        <v>0.1459874589744318</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1432780105099473</v>
+        <v>0.1459874589744318</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1428012414246051</v>
+        <v>0.1459874589744318</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1424816624780693</v>
+        <v>0.1459393977084775</v>
       </c>
       <c r="X7" t="n">
-        <v>0.142285438645241</v>
+        <v>0.145900343439188</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1419790078153851</v>
+        <v>0.145730610234885</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.025012969970703</v>
+        <v>0.9062750339508057</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>5035.556803371837</v>
+        <v>5031.814944307063</v>
       </c>
       <c r="F8" t="n">
         <v>0.2146727788952861</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1929468722480292</v>
+        <v>0.1956649310266082</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1801788885095871</v>
+        <v>0.1645778924473497</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1665276163799606</v>
+        <v>0.1639963975265227</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1598735422989802</v>
+        <v>0.1553880447867191</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1573827151790903</v>
+        <v>0.1535724004106633</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1495990010651872</v>
+        <v>0.1508117815163711</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1482970675059576</v>
+        <v>0.1508117815163711</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1482970675059576</v>
+        <v>0.145455297840117</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1482970675059576</v>
+        <v>0.1444821195840719</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1482970675059576</v>
+        <v>0.1428593814968889</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1482970675059576</v>
+        <v>0.1399482020620552</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1477877109130474</v>
+        <v>0.1380860612925353</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1477877109130474</v>
+        <v>0.1380860612925353</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1477877109130474</v>
+        <v>0.1380860612925353</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1469615810789216</v>
+        <v>0.1380860612925353</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1469615810789216</v>
+        <v>0.1380860612925353</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1469615810789216</v>
+        <v>0.1380860612925353</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1463540149101427</v>
+        <v>0.1380860612925353</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1461590020150456</v>
+        <v>0.1380860612925353</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.025010347366333</v>
+        <v>0.9218747615814209</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>5192.847719380767</v>
+        <v>5070.0895054556</v>
       </c>
       <c r="F9" t="n">
         <v>0.2146727788952861</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1930898959901441</v>
+        <v>0.1956649310266082</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1764462129618413</v>
+        <v>0.1734577395176391</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1656628665272394</v>
+        <v>0.1663442636233587</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1581172146685005</v>
+        <v>0.1583424710489685</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1581172146685005</v>
+        <v>0.1554586994347532</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1547965360043682</v>
+        <v>0.1553274285010321</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1547965360043682</v>
+        <v>0.1516863431370425</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1545091673739183</v>
+        <v>0.1516863431370425</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1525921687118766</v>
+        <v>0.1516863431370425</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1525921687118766</v>
+        <v>0.1508586721296964</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.150775342604792</v>
+        <v>0.1500770146522692</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1496972816088867</v>
+        <v>0.1500354298476126</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1496972816088867</v>
+        <v>0.1488582536780025</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1496972816088867</v>
+        <v>0.1487915780229555</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1496972816088867</v>
+        <v>0.1481429111516316</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1496972816088867</v>
+        <v>0.1480904194804329</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1496972816088867</v>
+        <v>0.1473483447188515</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1493365985684112</v>
+        <v>0.1471836717231068</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1492251017423151</v>
+        <v>0.1468321541024483</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9849746227264404</v>
+        <v>0.7656238079071045</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>5126.553672465527</v>
+        <v>4623.705380305699</v>
       </c>
       <c r="F10" t="n">
         <v>0.2146727788952861</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1956649310266082</v>
+        <v>0.1929649790401971</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1767620057480556</v>
+        <v>0.1858876739886031</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1643134974639206</v>
+        <v>0.1723251597758633</v>
       </c>
       <c r="J10" t="n">
-        <v>0.161730921624905</v>
+        <v>0.1544909325568811</v>
       </c>
       <c r="K10" t="n">
-        <v>0.160358027311406</v>
+        <v>0.1461016346414996</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1593627138731807</v>
+        <v>0.1409746712075019</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1587424379009411</v>
+        <v>0.1355059157275773</v>
       </c>
       <c r="N10" t="n">
-        <v>0.158317839954597</v>
+        <v>0.1205822195364806</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1582933726158103</v>
+        <v>0.1141534872114345</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1556853522153558</v>
+        <v>0.1079924447369404</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.152699728130759</v>
+        <v>0.1033483520201393</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1526239410427195</v>
+        <v>0.1029538891833664</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1526239410427195</v>
+        <v>0.1004896582884087</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1520422140719676</v>
+        <v>0.1004361870568431</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1511980480680632</v>
+        <v>0.09985517860787904</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1496456171210069</v>
+        <v>0.09826746735873401</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1490520966283181</v>
+        <v>0.09826746735873401</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1486453691804275</v>
+        <v>0.09826746735873401</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1479328201260336</v>
+        <v>0.09813070916775241</v>
       </c>
     </row>
     <row r="11">
@@ -1281,13 +1281,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9779849052429199</v>
+        <v>0.953125</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>4958.011339794413</v>
+        <v>5132.022502926322</v>
       </c>
       <c r="F11" t="n">
         <v>0.2146727788952861</v>
@@ -1296,58 +1296,58 @@
         <v>0.1956649310266082</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1685781269820346</v>
+        <v>0.1864078920415088</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1572314791747985</v>
+        <v>0.1809165505885315</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1572314791747985</v>
+        <v>0.1666030053541784</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1524900668024993</v>
+        <v>0.160504440436756</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1515228972062646</v>
+        <v>0.1524174849973258</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1507221325291044</v>
+        <v>0.1506766678861566</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1480102545238614</v>
+        <v>0.1500024857470708</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1468196811275343</v>
+        <v>0.1484065752447079</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1462626461379713</v>
+        <v>0.1484065752447079</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1462626461379713</v>
+        <v>0.1484065752447079</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1462626461379713</v>
+        <v>0.1484065752447079</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1462626461379713</v>
+        <v>0.1484065752447079</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1451251918119138</v>
+        <v>0.1484065752447079</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1451251918119138</v>
+        <v>0.1484065752447079</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1451251918119138</v>
+        <v>0.1484065752447079</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1451251918119138</v>
+        <v>0.1484065752447079</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1447984481291361</v>
+        <v>0.1480394250083104</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1446473945379028</v>
+        <v>0.1480394250083104</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr100_03_simulated/details.xlsx
+++ b/result/gr100_03_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8949596881866455</v>
+        <v>1.726994276046753</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>5440.353396191823</v>
+        <v>6606.738577097564</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2146727788952861</v>
+        <v>0.2127634481962593</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1956649310266082</v>
+        <v>0.1934638974912634</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1767605951137659</v>
+        <v>0.1733836405884461</v>
       </c>
       <c r="I2" t="n">
-        <v>0.163262506580145</v>
+        <v>0.1623690174035624</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1583030468112386</v>
+        <v>0.1469256233805147</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1566933580605231</v>
+        <v>0.1450049636073846</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1557858736227853</v>
+        <v>0.1450049636073846</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1553796858760203</v>
+        <v>0.1450049636073846</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1551745850355836</v>
+        <v>0.1448036855417751</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1550705040120784</v>
+        <v>0.1448036855417751</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1550176867762698</v>
+        <v>0.1448036855417751</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1549908839998894</v>
+        <v>0.1448036855417751</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1549772825909799</v>
+        <v>0.1448036855417751</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1549705436789115</v>
+        <v>0.1448036855417751</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1549670692140769</v>
+        <v>0.1447893721435916</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1549652541951334</v>
+        <v>0.1447893721435916</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1549643060509092</v>
+        <v>0.1447863270389388</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1545057389291681</v>
+        <v>0.1447863270389388</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1544237506637995</v>
+        <v>0.1447863270389388</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1540497738049088</v>
+        <v>0.1447863270389388</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.057798147201538</v>
+        <v>1.967994451522827</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>5039.478824497334</v>
+        <v>6607.667621530278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2146727788952861</v>
+        <v>0.2127634481962593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1933384005523712</v>
+        <v>0.1934638974912634</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1799754386507599</v>
+        <v>0.1733836405884461</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1680540835694761</v>
+        <v>0.1622856921731826</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1595033687699511</v>
+        <v>0.1469737490904527</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1516138664109001</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1516138664109001</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1516138664109001</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1489436918043434</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1489436918043434</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1481312594162714</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1475553677965185</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1475553677965185</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="S3" t="n">
-        <v>0.147264816024982</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1469399677367001</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1469399677367001</v>
+        <v>0.1448259699691833</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1469368220452329</v>
+        <v>0.144804437066867</v>
       </c>
       <c r="W3" t="n">
-        <v>0.146235454668564</v>
+        <v>0.144804437066867</v>
       </c>
       <c r="X3" t="n">
-        <v>0.146235454668564</v>
+        <v>0.144804437066867</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.146235454668564</v>
+        <v>0.144804437066867</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.890625</v>
+        <v>1.651999711990356</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>4971.846252555533</v>
+        <v>6606.94576317169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2146727788952861</v>
+        <v>0.2127634481962593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1938177082958615</v>
+        <v>0.1934638974912634</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1864078920415088</v>
+        <v>0.1733836405884461</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1556450001230484</v>
+        <v>0.1585552995096235</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1556450001230484</v>
+        <v>0.1461568894446195</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1527350601427934</v>
+        <v>0.1449084267808127</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1436263642244136</v>
+        <v>0.1449084267808127</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1403560766463956</v>
+        <v>0.1449084267808127</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1403560766463956</v>
+        <v>0.1449084267808127</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1403560766463956</v>
+        <v>0.1449084267808127</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1402530361378027</v>
+        <v>0.1449084267808127</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1396972180259811</v>
+        <v>0.1449084267808127</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1388288705955758</v>
+        <v>0.1449084267808127</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1380801770980697</v>
+        <v>0.1448900412810464</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1376418114432195</v>
+        <v>0.1448900412810464</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1373926163311942</v>
+        <v>0.1448786037712648</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1373152751542007</v>
+        <v>0.1448786037712648</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1372894322480053</v>
+        <v>0.1448621142022455</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1371331417193906</v>
+        <v>0.144808520661192</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1369170809465016</v>
+        <v>0.1447903657538341</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9218471050262451</v>
+        <v>1.791008472442627</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>5319.276856685684</v>
+        <v>6606.772291975225</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2146727788952861</v>
+        <v>0.2127634481962593</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1956649310266082</v>
+        <v>0.1934638974912634</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1735916782631247</v>
+        <v>0.1733836405884461</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1614733528139802</v>
+        <v>0.1616210852956254</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1608321234485468</v>
+        <v>0.1450589657350946</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1597570122895474</v>
+        <v>0.1447921023300285</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1576041170885637</v>
+        <v>0.1447921023300285</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1572659713685058</v>
+        <v>0.1447921023300285</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1569722157368286</v>
+        <v>0.1447921023300285</v>
       </c>
       <c r="O5" t="n">
-        <v>0.156324517469674</v>
+        <v>0.1447921023300285</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1559737367604662</v>
+        <v>0.1447921023300285</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1543925697545493</v>
+        <v>0.1447869842490297</v>
       </c>
       <c r="R5" t="n">
-        <v>0.15224635055469</v>
+        <v>0.1447869842490297</v>
       </c>
       <c r="S5" t="n">
-        <v>0.15224635055469</v>
+        <v>0.1447869842490297</v>
       </c>
       <c r="T5" t="n">
-        <v>0.15224635055469</v>
+        <v>0.1447869842490297</v>
       </c>
       <c r="U5" t="n">
-        <v>0.15224635055469</v>
+        <v>0.1447869842490297</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1518360453834512</v>
+        <v>0.1447869842490297</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1518360453834512</v>
+        <v>0.1447869842490297</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1518360453834512</v>
+        <v>0.1447869842490297</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1516896073428008</v>
+        <v>0.1447869842490297</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9375262260437012</v>
+        <v>1.742999315261841</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>5158.287553907163</v>
+        <v>6606.899230796525</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2146727788952861</v>
+        <v>0.2127634481962593</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1956649310266082</v>
+        <v>0.1934638974912634</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1745157418118972</v>
+        <v>0.1733836405884461</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1654085712640405</v>
+        <v>0.1623690174035624</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1609103478398919</v>
+        <v>0.1498334151688435</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1521786897514743</v>
+        <v>0.1455606811692347</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1521786897514743</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1521786897514743</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1502431894814248</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1502431894814248</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1492353598039636</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1492353598039636</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1492353598039636</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1492353598039636</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1490159579315052</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1487764446454088</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1486253009961733</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1486253009961733</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1485972791523557</v>
+        <v>0.1447894586899907</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1485514143061825</v>
+        <v>0.1447894586899907</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9374721050262451</v>
+        <v>1.979997158050537</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>5013.580305049602</v>
+        <v>6607.456545467006</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2146727788952861</v>
+        <v>0.2127634481962593</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1956649310266082</v>
+        <v>0.1934638974912634</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1803251139992895</v>
+        <v>0.1733836405884461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1629978428180135</v>
+        <v>0.1623690174035624</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1555437479710646</v>
+        <v>0.14497875291081</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1555437479710646</v>
+        <v>0.14497875291081</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1540546227523222</v>
+        <v>0.14497875291081</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1513452045070048</v>
+        <v>0.144847932583505</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1488925573226196</v>
+        <v>0.144847932583505</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1473057486562785</v>
+        <v>0.1448380603416486</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1473057486562785</v>
+        <v>0.1448380603416486</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1466799783034419</v>
+        <v>0.1448380603416486</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1466799783034419</v>
+        <v>0.1448190502397089</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1466799783034419</v>
+        <v>0.1448190502397089</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1459874589744318</v>
+        <v>0.1448190502397089</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1459874589744318</v>
+        <v>0.1448190502397089</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1459874589744318</v>
+        <v>0.1448190502397089</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1459393977084775</v>
+        <v>0.1448190502397089</v>
       </c>
       <c r="X7" t="n">
-        <v>0.145900343439188</v>
+        <v>0.1448190502397089</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.145730610234885</v>
+        <v>0.1448003225237233</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9062750339508057</v>
+        <v>1.858994960784912</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>5031.814944307063</v>
+        <v>6606.74368701515</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2146727788952861</v>
+        <v>0.2127634481962593</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1956649310266082</v>
+        <v>0.1934638974912634</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1645778924473497</v>
+        <v>0.1733836405884461</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1639963975265227</v>
+        <v>0.1623690174035624</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1553880447867191</v>
+        <v>0.1465262001453601</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1535724004106633</v>
+        <v>0.145229681148064</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1508117815163711</v>
+        <v>0.145229681148064</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1508117815163711</v>
+        <v>0.145229681148064</v>
       </c>
       <c r="N8" t="n">
-        <v>0.145455297840117</v>
+        <v>0.1449128490878133</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1444821195840719</v>
+        <v>0.1448258264878176</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1428593814968889</v>
+        <v>0.1448258264878176</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1399482020620552</v>
+        <v>0.1448258264878176</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1380860612925353</v>
+        <v>0.1448258264878176</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1380860612925353</v>
+        <v>0.1447864266474688</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1380860612925353</v>
+        <v>0.1447864266474688</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1380860612925353</v>
+        <v>0.1447864266474688</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1380860612925353</v>
+        <v>0.1447864266474688</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1380860612925353</v>
+        <v>0.1447864266474688</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1380860612925353</v>
+        <v>0.1447864266474688</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1380860612925353</v>
+        <v>0.1447864266474688</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9218747615814209</v>
+        <v>1.858001232147217</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>5070.0895054556</v>
+        <v>6606.803488594145</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2146727788952861</v>
+        <v>0.2127634481962593</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1956649310266082</v>
+        <v>0.1934638974912634</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1734577395176391</v>
+        <v>0.1733836405884461</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1663442636233587</v>
+        <v>0.1620588333831717</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1583424710489685</v>
+        <v>0.1471539925302741</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1554586994347532</v>
+        <v>0.1449685875807807</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1553274285010321</v>
+        <v>0.1449685875807807</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1516863431370425</v>
+        <v>0.1449685875807807</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1516863431370425</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1516863431370425</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1508586721296964</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1500770146522692</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1500354298476126</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1488582536780025</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1487915780229555</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1481429111516316</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1480904194804329</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1473483447188515</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1471836717231068</v>
+        <v>0.1447875923702562</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1468321541024483</v>
+        <v>0.1447875923702562</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7656238079071045</v>
+        <v>2.090995788574219</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>4623.705380305699</v>
+        <v>6606.826419322614</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2146727788952861</v>
+        <v>0.2127634481962593</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1929649790401971</v>
+        <v>0.1934638974912634</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1858876739886031</v>
+        <v>0.1733836405884461</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1723251597758633</v>
+        <v>0.1603734124806439</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1544909325568811</v>
+        <v>0.1457985613705054</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1461016346414996</v>
+        <v>0.1451580564148081</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1409746712075019</v>
+        <v>0.1451224548961737</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1355059157275773</v>
+        <v>0.1448007549883789</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1205822195364806</v>
+        <v>0.1448007549883789</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1141534872114345</v>
+        <v>0.1448007549883789</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1079924447369404</v>
+        <v>0.1448007549883789</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1033483520201393</v>
+        <v>0.1448007549883789</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1029538891833664</v>
+        <v>0.1448007549883789</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1004896582884087</v>
+        <v>0.1448007549883789</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1004361870568431</v>
+        <v>0.1447886511353449</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09985517860787904</v>
+        <v>0.1447886511353449</v>
       </c>
       <c r="V10" t="n">
-        <v>0.09826746735873401</v>
+        <v>0.1447886511353449</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09826746735873401</v>
+        <v>0.1447886511353449</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09826746735873401</v>
+        <v>0.1447880393630139</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.09813070916775241</v>
+        <v>0.1447880393630139</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.953125</v>
+        <v>1.782000780105591</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>5132.022502926322</v>
+        <v>6606.722414897682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2146727788952861</v>
+        <v>0.2127634481962593</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1956649310266082</v>
+        <v>0.1934638974912634</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1864078920415088</v>
+        <v>0.1733836405884461</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1809165505885315</v>
+        <v>0.1555526384135345</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1666030053541784</v>
+        <v>0.145476336841981</v>
       </c>
       <c r="K11" t="n">
-        <v>0.160504440436756</v>
+        <v>0.145476336841981</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1524174849973258</v>
+        <v>0.1450182489554601</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1506766678861566</v>
+        <v>0.1450182489554601</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1500024857470708</v>
+        <v>0.1450182489554601</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1484065752447079</v>
+        <v>0.1448397747604809</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1484065752447079</v>
+        <v>0.1448006014206911</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1484065752447079</v>
+        <v>0.1448006014206911</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1484065752447079</v>
+        <v>0.1448006014206911</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1484065752447079</v>
+        <v>0.1448006014206911</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1484065752447079</v>
+        <v>0.1448006014206911</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1484065752447079</v>
+        <v>0.1447969382309313</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1484065752447079</v>
+        <v>0.1447969382309313</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1484065752447079</v>
+        <v>0.1447969382309313</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1480394250083104</v>
+        <v>0.1447969382309313</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1480394250083104</v>
+        <v>0.1447860119863096</v>
       </c>
     </row>
   </sheetData>
